--- a/기획서/Test Case/SPB TESTCASE_1.0.xlsx
+++ b/기획서/Test Case/SPB TESTCASE_1.0.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\OneDrive\문서\GitHub\Sliding_Puzzle_Battle\기획서\Test Case\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_A81CAAA68C5FDAB4710B7DA0DBB3243C2D165AB2" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11136"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -374,7 +386,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0\ &quot;%&quot;"/>
   </numFmts>
@@ -658,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,121 +680,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1405,162 +1384,162 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="1.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="69.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="2.19921875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="11.69921875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6875" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="29" t="s">
+    <row r="1" spans="2:21" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="G2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="J2" s="14" t="s">
+      <c r="H2" s="27"/>
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <f>SUM(H3:H6)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G3" s="6" t="s">
+    <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <f>COUNTIF(G9:G82,"O")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
         <v>0</v>
       </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="8" t="s">
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <f>COUNTIF(G9:G82,"X")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G5" s="10" t="s">
+    <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <f>COUNTIF(G9:G82,"애매함")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G6" s="15" t="s">
+    <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="G6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="35" t="s">
+    <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="31" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-    </row>
-    <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="17" t="s">
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-    </row>
-    <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+    </row>
+    <row r="9" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -1573,1054 +1552,1011 @@
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-    </row>
-    <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+    </row>
+    <row r="10" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-    </row>
-    <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+    </row>
+    <row r="11" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B14" s="1">
         <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="2:21" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19">
+    <row r="15" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="2:21" s="21" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="21">
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="1">
         <v>8</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="20"/>
-    </row>
-    <row r="17" spans="2:21" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="21">
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="1">
         <v>9</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="2:21" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="21">
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="1">
         <v>10</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="21">
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B19" s="1">
         <v>11</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="21">
+    <row r="20" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="1">
         <v>12</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="21">
+    <row r="21" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="1">
         <v>13</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="21">
+    <row r="22" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B22" s="1">
         <v>14</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="2:21" s="19" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="21">
-        <v>15</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="26" t="s">
+    <row r="23" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B23" s="1">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="18"/>
-    </row>
-    <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="21">
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B24" s="1">
         <v>16</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="2:21" s="21" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E25" s="27"/>
-      <c r="F25" s="26" t="s">
+    <row r="25" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E25" s="17"/>
+      <c r="F25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="26"/>
-    </row>
-    <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="21">
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="1">
         <v>17</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="26" t="s">
+      <c r="E26" s="17"/>
+      <c r="F26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="2:21" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="21">
+    <row r="27" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B27" s="1">
         <v>18</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="26" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="2:21" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="21">
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B28" s="1">
         <v>19</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="2:21" s="21" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E29" s="27"/>
-      <c r="F29" s="26" t="s">
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E29" s="17"/>
+      <c r="F29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="26"/>
-    </row>
-    <row r="30" spans="2:21" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="21">
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B30" s="1">
         <v>20</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="26" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="2:21" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="21">
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B31" s="1">
         <v>21</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="26" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="4"/>
-    </row>
-    <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="21">
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="2"/>
+    </row>
+    <row r="32" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B32" s="1">
         <v>22</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="26" t="s">
+      <c r="E32" s="17"/>
+      <c r="F32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
+      <c r="G32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="2:21" s="21" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E33" s="27"/>
-      <c r="F33" s="26" t="s">
+    <row r="33" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E33" s="17"/>
+      <c r="F33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="26"/>
-    </row>
-    <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="21">
+      <c r="G33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="1">
         <v>23</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="20" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="21">
+    <row r="35" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B35" s="1">
         <v>24</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="26" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="21">
+    <row r="36" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B36" s="1">
         <v>25</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
+      <c r="G36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="21">
+    <row r="37" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B37" s="1">
         <v>26</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="23" t="s">
+      <c r="E37" s="17"/>
+      <c r="F37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
+      <c r="G37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="2:21" s="21" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="23" t="s">
+    <row r="38" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E38" s="17"/>
+      <c r="F38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="26"/>
-    </row>
-    <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="21">
+      <c r="G38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B39" s="1">
         <v>27</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="4" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
+      <c r="G39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="21">
+    <row r="40" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B40" s="1">
         <v>28</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="26" t="s">
+      <c r="E40" s="17"/>
+      <c r="F40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G40" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-    </row>
-    <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="21">
+      <c r="G40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+    </row>
+    <row r="41" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B41" s="1">
         <v>29</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="4" t="s">
+      <c r="E41" s="17"/>
+      <c r="F41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
+      <c r="G41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="21">
+    <row r="42" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B42" s="1">
         <v>30</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="4" t="s">
+      <c r="E42" s="17"/>
+      <c r="F42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
+      <c r="G42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="2:21" s="21" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="4" t="s">
+    <row r="43" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E43" s="17"/>
+      <c r="F43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="26"/>
-    </row>
-    <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="21">
+      <c r="G43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="2"/>
+    </row>
+    <row r="44" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B44" s="1">
         <v>31</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="4" t="s">
+      <c r="E44" s="17"/>
+      <c r="F44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
+      <c r="G44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="21">
+    <row r="45" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B45" s="1">
         <v>32</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="17"/>
+      <c r="F45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
+      <c r="G45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="21">
+    <row r="46" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B46" s="1">
         <v>33</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="17"/>
+      <c r="F46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
+      <c r="G46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="21">
+    <row r="47" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B47" s="1">
         <v>34</v>
       </c>
-      <c r="E47" s="27"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
+      <c r="G47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="21">
+    <row r="48" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B48" s="1">
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2629,616 +2565,584 @@
       <c r="D48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="21"/>
       <c r="F48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G48" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
+      <c r="G48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="21">
+    <row r="49" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B49" s="1">
         <v>36</v>
       </c>
-      <c r="E49" s="21"/>
       <c r="F49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G49" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
+      <c r="G49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="21">
+    <row r="50" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B50" s="1">
         <v>37</v>
       </c>
-      <c r="E50" s="21"/>
       <c r="F50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
+      <c r="G50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="21">
+    <row r="51" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B51" s="1">
         <v>38</v>
       </c>
-      <c r="E51" s="21"/>
       <c r="F51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
+      <c r="G51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="21">
+    <row r="52" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B52" s="1">
         <v>39</v>
       </c>
-      <c r="E52" s="21"/>
       <c r="F52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G52" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-    </row>
-    <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="21">
+      <c r="G52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+    </row>
+    <row r="53" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B53" s="1">
         <v>40</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
+      <c r="G53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="21">
+    <row r="54" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B54" s="1">
         <v>41</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G54" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
+      <c r="G54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="2:21" s="19" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="21">
+    <row r="55" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B55" s="1">
         <v>42</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G55" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="18"/>
-    </row>
-    <row r="56" spans="2:21" s="19" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="21">
+      <c r="G55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="2"/>
+    </row>
+    <row r="56" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B56" s="1">
         <v>43</v>
       </c>
-      <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G56" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="18"/>
-    </row>
-    <row r="57" spans="2:21" s="19" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="21">
+      <c r="G56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="2"/>
+    </row>
+    <row r="57" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B57" s="1">
         <v>44</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G57" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="34"/>
-      <c r="O57" s="34"/>
-      <c r="P57" s="34"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="18"/>
-    </row>
-    <row r="58" spans="2:21" s="19" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="21">
+      <c r="G57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="2"/>
+    </row>
+    <row r="58" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B58" s="1">
         <v>45</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G58" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="18"/>
-    </row>
-    <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="21">
+      <c r="G58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="2"/>
+    </row>
+    <row r="59" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B59" s="1">
         <v>46</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G59" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
+      <c r="G59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="21">
+    <row r="60" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B60" s="1">
         <v>47</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
+      <c r="G60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="21">
+    <row r="61" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B61" s="1">
         <v>48</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
+      <c r="G61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="2:21" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="21">
+    <row r="62" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B62" s="1">
         <v>49</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G62" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="4"/>
-    </row>
-    <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="21">
+      <c r="G62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="2"/>
+    </row>
+    <row r="63" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B63" s="1">
         <v>50</v>
       </c>
-      <c r="C63" s="19"/>
       <c r="D63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="21"/>
       <c r="F63" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G63" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33"/>
+      <c r="G63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="21">
+    <row r="64" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B64" s="1">
         <v>51</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G64" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
+      <c r="G64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="21">
+    <row r="65" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B65" s="1">
         <v>52</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G65" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
+      <c r="G65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="21">
+    <row r="66" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B66" s="1">
         <v>53</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G66" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
+      <c r="G66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="21">
+    <row r="67" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B67" s="1">
         <v>54</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G67" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
+      <c r="G67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="21">
+    <row r="68" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B68" s="1">
         <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G68" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
+      <c r="G68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="21">
+    <row r="69" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B69" s="1">
         <v>56</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F69" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G69" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
+      <c r="G69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="21">
+    <row r="70" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B70" s="1">
         <v>57</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F70" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G70" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
+      <c r="G70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="21">
+    <row r="71" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B71" s="1">
         <v>58</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -3247,101 +3151,101 @@
       <c r="F71" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G71" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
+      <c r="G71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="21">
+    <row r="72" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B72" s="1">
         <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G72" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
+      <c r="G72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="21">
+    <row r="73" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B73" s="1">
         <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="38"/>
+      <c r="G73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="28">
+    <row r="74" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B74" s="1">
         <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G74" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
-      <c r="T74" s="38"/>
+      <c r="G74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="28">
+    <row r="75" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B75" s="1">
         <v>62</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3350,176 +3254,177 @@
       <c r="F75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G75" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="38"/>
+      <c r="G75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="28">
+    <row r="76" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B76" s="1">
         <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G76" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
+      <c r="G76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="28">
+    <row r="77" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B77" s="1">
         <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G77" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="38"/>
+      <c r="G77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="28">
+    <row r="78" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B78" s="1">
         <v>65</v>
       </c>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="38"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="28">
+    <row r="79" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B79" s="1">
         <v>66</v>
       </c>
-      <c r="H79" s="39"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="38"/>
-      <c r="T79" s="38"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="19"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
-      <c r="Q80" s="38"/>
-      <c r="R80" s="38"/>
-      <c r="S80" s="38"/>
-      <c r="T80" s="38"/>
+    <row r="80" spans="2:21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="19"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="38"/>
+    <row r="81" spans="8:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H45:T45"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H64:T64"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H81:T81"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H7:T8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H46:T46"/>
+    <mergeCell ref="H32:T32"/>
+    <mergeCell ref="H34:T34"/>
+    <mergeCell ref="H35:T35"/>
+    <mergeCell ref="H36:T36"/>
+    <mergeCell ref="H37:T37"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="H44:T44"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H26:T26"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H24:T24"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
     <mergeCell ref="H63:T63"/>
     <mergeCell ref="H47:T47"/>
     <mergeCell ref="H48:T48"/>
@@ -3536,38 +3441,35 @@
     <mergeCell ref="H55:T55"/>
     <mergeCell ref="H56:T56"/>
     <mergeCell ref="H57:T57"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H26:T26"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H24:T24"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H7:T8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H46:T46"/>
-    <mergeCell ref="H32:T32"/>
-    <mergeCell ref="H34:T34"/>
-    <mergeCell ref="H35:T35"/>
-    <mergeCell ref="H36:T36"/>
-    <mergeCell ref="H37:T37"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="H44:T44"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H64:T64"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H70:T70"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
+    <mergeCell ref="H45:T45"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">

--- a/기획서/Test Case/SPB TESTCASE_1.0.xlsx
+++ b/기획서/Test Case/SPB TESTCASE_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Sliding_Puzzle_Battle\기획서\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD24560-6857-4588-AA4B-827A9D64E639}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6234EE-40A0-40B5-B6C4-E9133C564C59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
   <si>
     <t>구분</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -470,6 +470,14 @@
   </si>
   <si>
     <t>3.18 기준 - 첫 번째 스킬만 해금 테스트 완료</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.18 기준 - 이펙트는 나오긴 하지만 일정 상황에서 이펙트가 출력되다 말음</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.18 기준 - 일정 상황에서 검 , 몬스터 배치 시스템대로 배치가 안되는 버그가 존재함</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -815,20 +823,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -842,16 +853,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1484,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57:T57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1507,16 +1515,16 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="19"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(H3:H6)</f>
-        <v>141</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1524,15 +1532,15 @@
         <v>5</v>
       </c>
       <c r="H3" s="5">
-        <f>COUNTIF(G9:G82,"O")</f>
-        <v>37</v>
+        <f>COUNTIF(G9:G92,"O")</f>
+        <v>39</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>26.24113475177305</v>
+        <v>46.428571428571431</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1541,15 +1549,15 @@
         <v>7</v>
       </c>
       <c r="H4" s="7">
-        <f>COUNTIF(G9:G82,"X")</f>
-        <v>21</v>
+        <f>COUNTIF(G9:G92,"X")</f>
+        <v>25</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>73.75886524822694</v>
+        <v>53.571428571428569</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1557,8 +1565,8 @@
         <v>6</v>
       </c>
       <c r="H5" s="9">
-        <f>COUNTIF(G9:G82,"애매함")</f>
-        <v>4</v>
+        <f>COUNTIF(G9:G92,"애매함")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1566,37 +1574,37 @@
         <v>8</v>
       </c>
       <c r="H6" s="14">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
@@ -1611,23 +1619,23 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1642,19 +1650,19 @@
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1666,19 +1674,19 @@
       <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1690,19 +1698,19 @@
       <c r="G11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1715,19 +1723,19 @@
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1740,21 +1748,21 @@
       <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1767,19 +1775,19 @@
       <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1795,19 +1803,19 @@
       <c r="G15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1820,19 +1828,19 @@
       <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1845,19 +1853,19 @@
       <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1876,19 +1884,19 @@
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1902,19 +1910,19 @@
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1928,19 +1936,19 @@
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1956,19 +1964,19 @@
       <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1982,19 +1990,19 @@
       <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2007,19 +2015,19 @@
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2033,22 +2041,25 @@
       <c r="G24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="1">
+        <v>17</v>
+      </c>
       <c r="E25" s="17"/>
       <c r="F25" s="2" t="s">
         <v>27</v>
@@ -2056,24 +2067,24 @@
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>35</v>
@@ -2088,24 +2099,24 @@
       <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="2" t="s">
@@ -2114,24 +2125,24 @@
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="2" t="s">
@@ -2140,22 +2151,25 @@
       <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="1">
+        <v>21</v>
+      </c>
       <c r="E29" s="17"/>
       <c r="F29" s="2" t="s">
         <v>41</v>
@@ -2163,24 +2177,24 @@
       <c r="G29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>37</v>
@@ -2192,24 +2206,24 @@
       <c r="G30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="2" t="s">
@@ -2218,24 +2232,24 @@
       <c r="G31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="2" t="s">
@@ -2244,22 +2258,25 @@
       <c r="G32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
+        <v>25</v>
+      </c>
       <c r="E33" s="17"/>
       <c r="F33" s="2" t="s">
         <v>41</v>
@@ -2267,24 +2284,24 @@
       <c r="G33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>42</v>
@@ -2296,26 +2313,26 @@
       <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="2" t="s">
@@ -2324,24 +2341,24 @@
       <c r="G35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>31</v>
@@ -2349,24 +2366,24 @@
       <c r="G36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="2" t="s">
@@ -2375,22 +2392,25 @@
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="1">
+        <v>30</v>
+      </c>
       <c r="E38" s="17"/>
       <c r="F38" s="2" t="s">
         <v>44</v>
@@ -2398,24 +2418,24 @@
       <c r="G38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>43</v>
@@ -2427,26 +2447,26 @@
       <c r="G39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="2" t="s">
@@ -2455,23 +2475,23 @@
       <c r="G40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
     </row>
     <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="2" t="s">
@@ -2480,24 +2500,24 @@
       <c r="G41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="2" t="s">
@@ -2506,22 +2526,25 @@
       <c r="G42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <v>35</v>
+      </c>
       <c r="E43" s="17"/>
       <c r="F43" s="2" t="s">
         <v>45</v>
@@ -2529,24 +2552,24 @@
       <c r="G43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>46</v>
@@ -2558,24 +2581,24 @@
       <c r="G44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="2" t="s">
@@ -2584,24 +2607,24 @@
       <c r="G45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="2" t="s">
@@ -2610,24 +2633,24 @@
       <c r="G46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="2" t="s">
@@ -2636,24 +2659,24 @@
       <c r="G47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>47</v>
@@ -2667,24 +2690,24 @@
       <c r="G48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>49</v>
@@ -2692,24 +2715,24 @@
       <c r="G49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>59</v>
@@ -2717,24 +2740,24 @@
       <c r="G50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>50</v>
@@ -2742,24 +2765,24 @@
       <c r="G51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>54</v>
@@ -2767,23 +2790,23 @@
       <c r="G52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
     </row>
     <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>58</v>
@@ -2791,24 +2814,24 @@
       <c r="G53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>60</v>
@@ -2816,24 +2839,24 @@
       <c r="G54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F55" s="16" t="s">
         <v>61</v>
@@ -2841,24 +2864,24 @@
       <c r="G55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>64</v>
@@ -2869,26 +2892,26 @@
       <c r="G56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="19" t="s">
+      <c r="H56" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>65</v>
@@ -2896,24 +2919,24 @@
       <c r="G57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>66</v>
@@ -2921,24 +2944,24 @@
       <c r="G58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>67</v>
@@ -2946,24 +2969,24 @@
       <c r="G59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>68</v>
@@ -2971,24 +2994,24 @@
       <c r="G60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="23"/>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>69</v>
@@ -2996,24 +3019,24 @@
       <c r="G61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="23"/>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>70</v>
@@ -3021,24 +3044,24 @@
       <c r="G62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>21</v>
@@ -3049,24 +3072,24 @@
       <c r="G63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>51</v>
@@ -3074,24 +3097,24 @@
       <c r="G64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>52</v>
@@ -3099,24 +3122,24 @@
       <c r="G65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>53</v>
@@ -3124,24 +3147,24 @@
       <c r="G66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>55</v>
@@ -3149,24 +3172,24 @@
       <c r="G67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>84</v>
@@ -3174,24 +3197,24 @@
       <c r="G68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>57</v>
@@ -3199,49 +3222,51 @@
       <c r="G69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>75</v>
@@ -3252,24 +3277,24 @@
       <c r="G71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>76</v>
@@ -3277,24 +3302,24 @@
       <c r="G72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>78</v>
@@ -3302,24 +3327,24 @@
       <c r="G73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>79</v>
@@ -3327,24 +3352,24 @@
       <c r="G74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>80</v>
@@ -3355,74 +3380,76 @@
       <c r="G75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>86</v>
@@ -3433,24 +3460,24 @@
       <c r="G78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="T78" s="21"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F79" s="16" t="s">
         <v>89</v>
@@ -3458,24 +3485,24 @@
       <c r="G79" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="22"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="21"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F80" s="16" t="s">
         <v>88</v>
@@ -3483,24 +3510,24 @@
       <c r="G80" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="T80" s="21"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F81" s="16" t="s">
         <v>90</v>
@@ -3508,23 +3535,23 @@
       <c r="G81" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
     </row>
     <row r="82" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F82" s="16" t="s">
         <v>91</v>
@@ -3532,23 +3559,23 @@
       <c r="G82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
     </row>
     <row r="83" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F83" s="16" t="s">
         <v>92</v>
@@ -3556,23 +3583,23 @@
       <c r="G83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
     </row>
     <row r="84" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F84" s="16" t="s">
         <v>93</v>
@@ -3580,23 +3607,23 @@
       <c r="G84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
     </row>
     <row r="85" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F85" s="16" t="s">
         <v>94</v>
@@ -3604,47 +3631,47 @@
       <c r="G85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
     </row>
     <row r="86" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F86" s="16" t="s">
         <v>95</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
     </row>
     <row r="87" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F87" s="16" t="s">
         <v>96</v>
@@ -3652,23 +3679,23 @@
       <c r="G87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
     </row>
     <row r="88" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F88" s="16" t="s">
         <v>97</v>
@@ -3676,25 +3703,25 @@
       <c r="G88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H88" s="21" t="s">
+      <c r="H88" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
     </row>
     <row r="89" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F89" s="16" t="s">
         <v>98</v>
@@ -3702,23 +3729,23 @@
       <c r="G89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="18"/>
     </row>
     <row r="90" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F90" s="16" t="s">
         <v>99</v>
@@ -3726,23 +3753,23 @@
       <c r="G90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
     </row>
     <row r="91" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F91" s="16" t="s">
         <v>100</v>
@@ -3750,23 +3777,23 @@
       <c r="G91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="21"/>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="21"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
     </row>
     <row r="92" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F92" s="16" t="s">
         <v>101</v>
@@ -3774,33 +3801,83 @@
       <c r="G92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="H92:T92"/>
-    <mergeCell ref="H87:T87"/>
-    <mergeCell ref="H88:T88"/>
-    <mergeCell ref="H89:T89"/>
-    <mergeCell ref="H90:T90"/>
-    <mergeCell ref="H91:T91"/>
-    <mergeCell ref="H82:T82"/>
-    <mergeCell ref="H83:T83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
+    <mergeCell ref="H45:T45"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H64:T64"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H70:T70"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H63:T63"/>
+    <mergeCell ref="H47:T47"/>
+    <mergeCell ref="H48:T48"/>
+    <mergeCell ref="H49:T49"/>
+    <mergeCell ref="H50:T50"/>
+    <mergeCell ref="H51:T51"/>
+    <mergeCell ref="H52:T52"/>
+    <mergeCell ref="H53:T53"/>
+    <mergeCell ref="H54:T54"/>
+    <mergeCell ref="H59:T59"/>
+    <mergeCell ref="H60:T60"/>
+    <mergeCell ref="H61:T61"/>
+    <mergeCell ref="H62:T62"/>
+    <mergeCell ref="H55:T55"/>
+    <mergeCell ref="H56:T56"/>
+    <mergeCell ref="H57:T57"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H26:T26"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H24:T24"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H7:T8"/>
     <mergeCell ref="F7:F8"/>
@@ -3817,67 +3894,17 @@
     <mergeCell ref="H44:T44"/>
     <mergeCell ref="H23:T23"/>
     <mergeCell ref="H27:T27"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H26:T26"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H24:T24"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="H63:T63"/>
-    <mergeCell ref="H47:T47"/>
-    <mergeCell ref="H48:T48"/>
-    <mergeCell ref="H49:T49"/>
-    <mergeCell ref="H50:T50"/>
-    <mergeCell ref="H51:T51"/>
-    <mergeCell ref="H52:T52"/>
-    <mergeCell ref="H53:T53"/>
-    <mergeCell ref="H54:T54"/>
-    <mergeCell ref="H59:T59"/>
-    <mergeCell ref="H60:T60"/>
-    <mergeCell ref="H61:T61"/>
-    <mergeCell ref="H62:T62"/>
-    <mergeCell ref="H55:T55"/>
-    <mergeCell ref="H56:T56"/>
-    <mergeCell ref="H57:T57"/>
-    <mergeCell ref="H81:T81"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H64:T64"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H45:T45"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="H82:T82"/>
+    <mergeCell ref="H83:T83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="H88:T88"/>
+    <mergeCell ref="H89:T89"/>
+    <mergeCell ref="H90:T90"/>
+    <mergeCell ref="H91:T91"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">

--- a/기획서/Test Case/SPB TESTCASE_1.0.xlsx
+++ b/기획서/Test Case/SPB TESTCASE_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Sliding_Puzzle_Battle\기획서\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6234EE-40A0-40B5-B6C4-E9133C564C59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927DFAE1-9D37-4D96-9739-543BBAB42D4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,23 +823,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -853,13 +850,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1515,10 +1515,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1533,14 +1533,14 @@
       </c>
       <c r="H3" s="5">
         <f>COUNTIF(G9:G92,"O")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>46.428571428571431</v>
+        <v>47.619047619047613</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1550,14 +1550,14 @@
       </c>
       <c r="H4" s="7">
         <f>COUNTIF(G9:G92,"X")</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>53.571428571428569</v>
+        <v>52.380952380952387</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1578,33 +1578,33 @@
       </c>
     </row>
     <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
@@ -1619,23 +1619,23 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
     </row>
     <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1650,19 +1650,19 @@
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
     </row>
     <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1672,21 +1672,21 @@
         <v>18</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1698,19 +1698,19 @@
       <c r="G11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1723,19 +1723,19 @@
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1748,21 +1748,21 @@
       <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1775,19 +1775,19 @@
       <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1803,19 +1803,19 @@
       <c r="G15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1828,19 +1828,19 @@
       <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1853,19 +1853,19 @@
       <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1884,19 +1884,19 @@
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1910,19 +1910,19 @@
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1936,19 +1936,19 @@
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1964,19 +1964,19 @@
       <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1990,19 +1990,19 @@
       <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2015,19 +2015,19 @@
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2041,19 +2041,19 @@
       <c r="G24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2067,19 +2067,19 @@
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2099,19 +2099,19 @@
       <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2125,19 +2125,19 @@
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2151,19 +2151,19 @@
       <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2177,19 +2177,19 @@
       <c r="G29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2206,19 +2206,19 @@
       <c r="G30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2232,19 +2232,19 @@
       <c r="G31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2258,19 +2258,19 @@
       <c r="G32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2284,19 +2284,19 @@
       <c r="G33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2313,21 +2313,21 @@
       <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2341,19 +2341,19 @@
       <c r="G35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2366,19 +2366,19 @@
       <c r="G36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2392,19 +2392,19 @@
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2418,19 +2418,19 @@
       <c r="G38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2447,21 +2447,21 @@
       <c r="G39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2475,19 +2475,19 @@
       <c r="G40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
     </row>
     <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2500,19 +2500,19 @@
       <c r="G41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2526,19 +2526,19 @@
       <c r="G42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2552,19 +2552,19 @@
       <c r="G43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2581,19 +2581,19 @@
       <c r="G44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2607,19 +2607,19 @@
       <c r="G45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2633,19 +2633,19 @@
       <c r="G46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2659,19 +2659,19 @@
       <c r="G47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2690,19 +2690,19 @@
       <c r="G48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2715,19 +2715,19 @@
       <c r="G49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2740,19 +2740,19 @@
       <c r="G50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2765,19 +2765,19 @@
       <c r="G51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2790,19 +2790,19 @@
       <c r="G52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
     </row>
     <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2814,19 +2814,19 @@
       <c r="G53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2839,19 +2839,19 @@
       <c r="G54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2864,19 +2864,19 @@
       <c r="G55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2892,21 +2892,21 @@
       <c r="G56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2919,19 +2919,19 @@
       <c r="G57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2944,19 +2944,19 @@
       <c r="G58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2969,19 +2969,19 @@
       <c r="G59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2994,19 +2994,19 @@
       <c r="G60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3019,19 +3019,19 @@
       <c r="G61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3044,19 +3044,19 @@
       <c r="G62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3072,19 +3072,19 @@
       <c r="G63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3097,19 +3097,19 @@
       <c r="G64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3122,19 +3122,19 @@
       <c r="G65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3147,19 +3147,19 @@
       <c r="G66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3172,19 +3172,19 @@
       <c r="G67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3197,19 +3197,19 @@
       <c r="G68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3222,19 +3222,19 @@
       <c r="G69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3247,21 +3247,21 @@
       <c r="G70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="18" t="s">
+      <c r="H70" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3277,19 +3277,19 @@
       <c r="G71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3302,19 +3302,19 @@
       <c r="G72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3327,19 +3327,19 @@
       <c r="G73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3352,19 +3352,19 @@
       <c r="G74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3380,19 +3380,19 @@
       <c r="G75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3405,19 +3405,19 @@
       <c r="G76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3430,21 +3430,21 @@
       <c r="G77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="H77" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3460,19 +3460,19 @@
       <c r="G78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3485,19 +3485,19 @@
       <c r="G79" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H79" s="28"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3510,19 +3510,19 @@
       <c r="G80" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3535,19 +3535,19 @@
       <c r="G81" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
     </row>
     <row r="82" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
@@ -3559,19 +3559,19 @@
       <c r="G82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
     </row>
     <row r="83" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
@@ -3583,19 +3583,19 @@
       <c r="G83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
     </row>
     <row r="84" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
@@ -3607,19 +3607,19 @@
       <c r="G84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
     </row>
     <row r="85" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
@@ -3631,19 +3631,19 @@
       <c r="G85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
     </row>
     <row r="86" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
@@ -3655,19 +3655,19 @@
       <c r="G86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
     </row>
     <row r="87" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
@@ -3679,19 +3679,19 @@
       <c r="G87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
     </row>
     <row r="88" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
@@ -3703,21 +3703,21 @@
       <c r="G88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
     </row>
     <row r="89" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
@@ -3729,19 +3729,19 @@
       <c r="G89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
     </row>
     <row r="90" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
@@ -3753,19 +3753,19 @@
       <c r="G90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
     </row>
     <row r="91" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
@@ -3777,19 +3777,19 @@
       <c r="G91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
     </row>
     <row r="92" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
@@ -3801,51 +3801,65 @@
       <c r="G92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H45:T45"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H64:T64"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H81:T81"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="H88:T88"/>
+    <mergeCell ref="H89:T89"/>
+    <mergeCell ref="H90:T90"/>
+    <mergeCell ref="H91:T91"/>
+    <mergeCell ref="H82:T82"/>
+    <mergeCell ref="H83:T83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H7:T8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H46:T46"/>
+    <mergeCell ref="H32:T32"/>
+    <mergeCell ref="H34:T34"/>
+    <mergeCell ref="H35:T35"/>
+    <mergeCell ref="H36:T36"/>
+    <mergeCell ref="H37:T37"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="H44:T44"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H26:T26"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H24:T24"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
     <mergeCell ref="H63:T63"/>
     <mergeCell ref="H47:T47"/>
     <mergeCell ref="H48:T48"/>
@@ -3862,49 +3876,35 @@
     <mergeCell ref="H55:T55"/>
     <mergeCell ref="H56:T56"/>
     <mergeCell ref="H57:T57"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H26:T26"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H24:T24"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H7:T8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H46:T46"/>
-    <mergeCell ref="H32:T32"/>
-    <mergeCell ref="H34:T34"/>
-    <mergeCell ref="H35:T35"/>
-    <mergeCell ref="H36:T36"/>
-    <mergeCell ref="H37:T37"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="H44:T44"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H27:T27"/>
-    <mergeCell ref="H82:T82"/>
-    <mergeCell ref="H83:T83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="H86:T86"/>
-    <mergeCell ref="H92:T92"/>
-    <mergeCell ref="H87:T87"/>
-    <mergeCell ref="H88:T88"/>
-    <mergeCell ref="H89:T89"/>
-    <mergeCell ref="H90:T90"/>
-    <mergeCell ref="H91:T91"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H64:T64"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H70:T70"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
+    <mergeCell ref="H45:T45"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">

--- a/기획서/Test Case/SPB TESTCASE_1.0.xlsx
+++ b/기획서/Test Case/SPB TESTCASE_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Sliding_Puzzle_Battle\기획서\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927DFAE1-9D37-4D96-9739-543BBAB42D4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A000E-44F4-4501-8335-BBC28495DAB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
   <si>
     <t>구분</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -457,27 +457,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3.18 기준 - 소리 싱크가 맞지 않음.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.18 기준 - 제한시간 0에서 클리어 시, Failed 나오는 현상</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3.18 기준 - 스테이지 버그</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3.18 기준 - 첫 번째 스킬만 해금 테스트 완료</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3.18 기준 - 이펙트는 나오긴 하지만 일정 상황에서 이펙트가 출력되다 말음</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>3.18 기준 - 일정 상황에서 검 , 몬스터 배치 시스템대로 배치가 안되는 버그가 존재함</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.19 기준 - 사운드 파일 변경</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.19 기준 - 해금 자체는 됨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.19 기준 - 사용은 됨</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1492,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1524,7 +1528,7 @@
       </c>
       <c r="K2" s="3">
         <f>SUM(H3:H6)</f>
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1533,14 +1537,14 @@
       </c>
       <c r="H3" s="5">
         <f>COUNTIF(G9:G92,"O")</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>47.619047619047613</v>
+        <v>61.797752808988761</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1550,14 +1554,14 @@
       </c>
       <c r="H4" s="7">
         <f>COUNTIF(G9:G92,"X")</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>52.380952380952387</v>
+        <v>38.202247191011232</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1566,7 +1570,7 @@
       </c>
       <c r="H5" s="9">
         <f>COUNTIF(G9:G92,"애매함")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1749,7 +1753,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -1801,7 +1805,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -1826,7 +1830,7 @@
         <v>33</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
@@ -1851,7 +1855,7 @@
         <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -2311,11 +2315,9 @@
         <v>62</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>103</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
@@ -2445,11 +2447,9 @@
         <v>62</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>103</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
@@ -2738,7 +2738,7 @@
         <v>59</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2763,7 +2763,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2862,7 +2862,7 @@
         <v>61</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2890,10 +2890,10 @@
         <v>74</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
@@ -2942,9 +2942,11 @@
         <v>66</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
@@ -3248,7 +3250,7 @@
         <v>6</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
@@ -3431,7 +3433,7 @@
         <v>6</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
@@ -3483,9 +3485,11 @@
         <v>89</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
       <c r="K79" s="21"/>
@@ -3508,7 +3512,7 @@
         <v>88</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
@@ -3533,7 +3537,7 @@
         <v>90</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
@@ -3557,7 +3561,7 @@
         <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
@@ -3701,10 +3705,10 @@
         <v>97</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>

--- a/기획서/Test Case/SPB TESTCASE_1.0.xlsx
+++ b/기획서/Test Case/SPB TESTCASE_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Sliding_Puzzle_Battle\기획서\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A000E-44F4-4501-8335-BBC28495DAB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A6A327-3E06-462A-8216-EADAD44679F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
   <si>
     <t>구분</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -457,10 +457,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3.18 기준 - 스테이지 버그</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3.18 기준 - 이펙트는 나오긴 하지만 일정 상황에서 이펙트가 출력되다 말음</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -469,19 +465,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3.19 기준 - 사운드 파일 변경</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.19 기준 - 해금 자체는 됨</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3.19 기준 - 사용은 됨</t>
+    <t>스킬 터치를 지속 시, 스킬 팝업 창이 제대로 출력되는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.21 기준 - 이펙트는 나오긴 하지만 일정 상황에서 이펙트 잔존 현상</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.21 기준 - 에너지는 제대로 감소하지만 일정 상황에서 버그 발생</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -827,20 +823,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -854,16 +853,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1494,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U92"/>
+  <dimension ref="B1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69:T69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1519,16 +1515,16 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="19"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(H3:H6)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1536,15 +1532,15 @@
         <v>5</v>
       </c>
       <c r="H3" s="5">
-        <f>COUNTIF(G9:G92,"O")</f>
-        <v>55</v>
+        <f>COUNTIF(G9:G93,"O")</f>
+        <v>64</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>61.797752808988761</v>
+        <v>72.727272727272734</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1553,15 +1549,15 @@
         <v>7</v>
       </c>
       <c r="H4" s="7">
-        <f>COUNTIF(G9:G92,"X")</f>
-        <v>18</v>
+        <f>COUNTIF(G9:G93,"X")</f>
+        <v>10</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>38.202247191011232</v>
+        <v>27.27272727272727</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1569,8 +1565,8 @@
         <v>6</v>
       </c>
       <c r="H5" s="9">
-        <f>COUNTIF(G9:G92,"애매함")</f>
-        <v>3</v>
+        <f>COUNTIF(G9:G93,"애매함")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1578,37 +1574,37 @@
         <v>8</v>
       </c>
       <c r="H6" s="14">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
@@ -1623,23 +1619,23 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1654,19 +1650,19 @@
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1678,19 +1674,19 @@
       <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1702,19 +1698,19 @@
       <c r="G11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1727,19 +1723,19 @@
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1750,23 +1746,21 @@
         <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1779,19 +1773,19 @@
       <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1807,19 +1801,19 @@
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1832,19 +1826,19 @@
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1857,19 +1851,19 @@
       <c r="G17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1888,19 +1882,19 @@
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1914,19 +1908,19 @@
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1940,19 +1934,19 @@
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1968,19 +1962,19 @@
       <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1994,19 +1988,19 @@
       <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2019,19 +2013,19 @@
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2045,19 +2039,19 @@
       <c r="G24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2071,19 +2065,19 @@
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2103,19 +2097,19 @@
       <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2129,19 +2123,19 @@
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2155,19 +2149,19 @@
       <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2181,19 +2175,19 @@
       <c r="G29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2210,19 +2204,19 @@
       <c r="G30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2236,19 +2230,19 @@
       <c r="G31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2262,19 +2256,19 @@
       <c r="G32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2288,19 +2282,19 @@
       <c r="G33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2317,19 +2311,19 @@
       <c r="G34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2343,19 +2337,19 @@
       <c r="G35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2368,19 +2362,19 @@
       <c r="G36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2394,19 +2388,19 @@
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2420,19 +2414,19 @@
       <c r="G38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2449,19 +2443,19 @@
       <c r="G39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2475,19 +2469,19 @@
       <c r="G40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
     </row>
     <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2500,19 +2494,19 @@
       <c r="G41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2526,19 +2520,19 @@
       <c r="G42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2552,19 +2546,19 @@
       <c r="G43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2581,19 +2575,19 @@
       <c r="G44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2607,19 +2601,19 @@
       <c r="G45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2633,19 +2627,19 @@
       <c r="G46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2659,19 +2653,19 @@
       <c r="G47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2690,19 +2684,19 @@
       <c r="G48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2715,19 +2709,19 @@
       <c r="G49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2740,19 +2734,19 @@
       <c r="G50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2765,19 +2759,19 @@
       <c r="G51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2790,19 +2784,19 @@
       <c r="G52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
     </row>
     <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2814,19 +2808,19 @@
       <c r="G53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2839,19 +2833,19 @@
       <c r="G54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2864,19 +2858,19 @@
       <c r="G55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2892,21 +2886,19 @@
       <c r="G56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2917,21 +2909,21 @@
         <v>65</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2942,23 +2934,21 @@
         <v>66</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2971,19 +2961,19 @@
       <c r="G59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2996,19 +2986,19 @@
       <c r="G60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="23"/>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3021,19 +3011,19 @@
       <c r="G61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="23"/>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3041,77 +3031,79 @@
         <v>54</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <v>55</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>56</v>
       </c>
+      <c r="D64" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3119,24 +3111,24 @@
         <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3144,24 +3136,24 @@
         <v>58</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3169,24 +3161,24 @@
         <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3194,24 +3186,24 @@
         <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3219,24 +3211,24 @@
         <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3244,79 +3236,79 @@
         <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>63</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <v>64</v>
       </c>
+      <c r="D72" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3324,24 +3316,24 @@
         <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3349,77 +3341,79 @@
         <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
         <v>67</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <v>68</v>
       </c>
+      <c r="C76" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3427,81 +3421,81 @@
         <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
+      <c r="H77" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <v>70</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="T78" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
         <v>71</v>
       </c>
-      <c r="F79" s="16" t="s">
-        <v>89</v>
+      <c r="C79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H79" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="21"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3509,329 +3503,403 @@
         <v>72</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="T80" s="21"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
         <v>73</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
-    </row>
-    <row r="82" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="2"/>
+    </row>
+    <row r="82" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
         <v>74</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
-    </row>
-    <row r="83" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
+    </row>
+    <row r="83" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>75</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
-    </row>
-    <row r="84" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
+    </row>
+    <row r="84" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>76</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-    </row>
-    <row r="85" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+    </row>
+    <row r="85" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>77</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
-    </row>
-    <row r="86" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+    </row>
+    <row r="86" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>78</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
-    </row>
-    <row r="87" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+    </row>
+    <row r="87" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>79</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
-    </row>
-    <row r="88" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
+    </row>
+    <row r="88" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>80</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H88" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
-    </row>
-    <row r="89" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
+    </row>
+    <row r="89" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>81</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
-    </row>
-    <row r="90" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="18"/>
+    </row>
+    <row r="90" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>82</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
-    </row>
-    <row r="91" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+    </row>
+    <row r="91" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>83</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="21"/>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="21"/>
-    </row>
-    <row r="92" spans="2:20" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
+    </row>
+    <row r="92" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>84</v>
       </c>
       <c r="F92" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+    </row>
+    <row r="93" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="1">
+        <v>85</v>
+      </c>
+      <c r="F93" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="H92:T92"/>
-    <mergeCell ref="H87:T87"/>
-    <mergeCell ref="H88:T88"/>
-    <mergeCell ref="H89:T89"/>
-    <mergeCell ref="H90:T90"/>
-    <mergeCell ref="H91:T91"/>
+  <mergeCells count="89">
+    <mergeCell ref="H62:T62"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
+    <mergeCell ref="H45:T45"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H70:T70"/>
     <mergeCell ref="H82:T82"/>
-    <mergeCell ref="H83:T83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H64:T64"/>
+    <mergeCell ref="H47:T47"/>
+    <mergeCell ref="H48:T48"/>
+    <mergeCell ref="H49:T49"/>
+    <mergeCell ref="H50:T50"/>
+    <mergeCell ref="H51:T51"/>
+    <mergeCell ref="H52:T52"/>
+    <mergeCell ref="H53:T53"/>
+    <mergeCell ref="H54:T54"/>
+    <mergeCell ref="H59:T59"/>
+    <mergeCell ref="H60:T60"/>
+    <mergeCell ref="H61:T61"/>
+    <mergeCell ref="H63:T63"/>
+    <mergeCell ref="H55:T55"/>
+    <mergeCell ref="H56:T56"/>
+    <mergeCell ref="H57:T57"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H26:T26"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H24:T24"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H7:T8"/>
     <mergeCell ref="F7:F8"/>
@@ -3848,67 +3916,17 @@
     <mergeCell ref="H44:T44"/>
     <mergeCell ref="H23:T23"/>
     <mergeCell ref="H27:T27"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H26:T26"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H24:T24"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="H63:T63"/>
-    <mergeCell ref="H47:T47"/>
-    <mergeCell ref="H48:T48"/>
-    <mergeCell ref="H49:T49"/>
-    <mergeCell ref="H50:T50"/>
-    <mergeCell ref="H51:T51"/>
-    <mergeCell ref="H52:T52"/>
-    <mergeCell ref="H53:T53"/>
-    <mergeCell ref="H54:T54"/>
-    <mergeCell ref="H59:T59"/>
-    <mergeCell ref="H60:T60"/>
-    <mergeCell ref="H61:T61"/>
-    <mergeCell ref="H62:T62"/>
-    <mergeCell ref="H55:T55"/>
-    <mergeCell ref="H56:T56"/>
-    <mergeCell ref="H57:T57"/>
-    <mergeCell ref="H81:T81"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H64:T64"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H45:T45"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="H83:T83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="H93:T93"/>
+    <mergeCell ref="H88:T88"/>
+    <mergeCell ref="H89:T89"/>
+    <mergeCell ref="H90:T90"/>
+    <mergeCell ref="H91:T91"/>
+    <mergeCell ref="H92:T92"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">
@@ -4010,7 +4028,7 @@
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G105">
+  <conditionalFormatting sqref="G9:G106">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"테스트 안함"</formula>
     </cfRule>

--- a/기획서/Test Case/SPB TESTCASE_1.0.xlsx
+++ b/기획서/Test Case/SPB TESTCASE_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Sliding_Puzzle_Battle\기획서\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A6A327-3E06-462A-8216-EADAD44679F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE2106C-CF90-4A40-BB2D-7820EDE450BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
   <si>
     <t>구분</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -347,10 +347,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1 스테이지 클리어 후, 재시작 시 다시 튜토리얼 이미지가 출력되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Skip 버튼은 제대로 작동하는가</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -461,10 +457,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3.18 기준 - 일정 상황에서 검 , 몬스터 배치 시스템대로 배치가 안되는 버그가 존재함</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -478,6 +470,19 @@
   </si>
   <si>
     <t>3.21 기준 - 에너지는 제대로 감소하지만 일정 상황에서 버그 발생</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 스테이지 클리어 후, 재시작 시 다시 튜토리얼 이미지가 출력되지 않는가</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.21 기준 - 제한 시간 사운드 문제</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.21 기준 - 애니메이션 및 이펙트는 제대로 작동하지만 일정 상황에서 
+일부 타일에게 영향을 주지 않는 버그 발생</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -823,23 +828,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -853,13 +855,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1492,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69:T69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1515,16 +1520,16 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(H3:H6)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1533,14 +1538,14 @@
       </c>
       <c r="H3" s="5">
         <f>COUNTIF(G9:G93,"O")</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>72.727272727272734</v>
+        <v>84.705882352941174</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1550,14 +1555,14 @@
       </c>
       <c r="H4" s="7">
         <f>COUNTIF(G9:G93,"X")</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>27.27272727272727</v>
+        <v>15.294117647058824</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1566,7 +1571,7 @@
       </c>
       <c r="H5" s="9">
         <f>COUNTIF(G9:G93,"애매함")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1574,37 +1579,37 @@
         <v>8</v>
       </c>
       <c r="H6" s="14">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="H7" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
@@ -1619,23 +1624,23 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
     </row>
     <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1650,19 +1655,19 @@
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
     </row>
     <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1674,19 +1679,19 @@
       <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
     </row>
     <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1698,19 +1703,19 @@
       <c r="G11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1723,19 +1728,19 @@
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1748,19 +1753,19 @@
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1773,19 +1778,19 @@
       <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1801,19 +1806,19 @@
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1826,19 +1831,19 @@
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1851,19 +1856,19 @@
       <c r="G17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1882,19 +1887,19 @@
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1908,19 +1913,19 @@
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1934,19 +1939,19 @@
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1962,19 +1967,19 @@
       <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1988,19 +1993,19 @@
       <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2013,19 +2018,19 @@
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2039,19 +2044,19 @@
       <c r="G24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2065,19 +2070,19 @@
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2097,19 +2102,19 @@
       <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2123,19 +2128,19 @@
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2149,19 +2154,19 @@
       <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2175,19 +2180,19 @@
       <c r="G29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2204,19 +2209,19 @@
       <c r="G30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2230,19 +2235,19 @@
       <c r="G31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2256,19 +2261,19 @@
       <c r="G32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2282,19 +2287,19 @@
       <c r="G33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2311,19 +2316,19 @@
       <c r="G34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2337,19 +2342,19 @@
       <c r="G35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2362,19 +2367,19 @@
       <c r="G36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2388,19 +2393,19 @@
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2414,19 +2419,19 @@
       <c r="G38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2443,19 +2448,19 @@
       <c r="G39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2469,19 +2474,19 @@
       <c r="G40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
     </row>
     <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2494,19 +2499,19 @@
       <c r="G41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2520,19 +2525,19 @@
       <c r="G42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2546,19 +2551,19 @@
       <c r="G43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2575,19 +2580,19 @@
       <c r="G44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2601,19 +2606,19 @@
       <c r="G45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2627,19 +2632,19 @@
       <c r="G46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2653,19 +2658,19 @@
       <c r="G47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2684,19 +2689,19 @@
       <c r="G48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2709,19 +2714,19 @@
       <c r="G49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2734,19 +2739,19 @@
       <c r="G50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2759,19 +2764,19 @@
       <c r="G51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2784,19 +2789,19 @@
       <c r="G52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
     </row>
     <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2808,19 +2813,19 @@
       <c r="G53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2833,19 +2838,19 @@
       <c r="G54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2858,19 +2863,19 @@
       <c r="G55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2886,19 +2891,19 @@
       <c r="G56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2911,19 +2916,19 @@
       <c r="G57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2934,21 +2939,21 @@
         <v>66</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
+        <v>102</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2959,21 +2964,21 @@
         <v>67</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2986,19 +2991,19 @@
       <c r="G60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3011,19 +3016,19 @@
       <c r="G61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3031,24 +3036,24 @@
         <v>54</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3061,21 +3066,21 @@
       <c r="G63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
+      <c r="H63" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3089,21 +3094,21 @@
         <v>71</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3116,19 +3121,19 @@
       <c r="G65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3141,19 +3146,19 @@
       <c r="G66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3164,21 +3169,23 @@
         <v>53</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3191,19 +3198,19 @@
       <c r="G68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3211,24 +3218,24 @@
         <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3241,19 +3248,19 @@
       <c r="G70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3264,23 +3271,21 @@
         <v>56</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3296,19 +3301,19 @@
       <c r="G72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3321,19 +3326,19 @@
       <c r="G73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3341,24 +3346,24 @@
         <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3366,24 +3371,24 @@
         <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3391,29 +3396,29 @@
         <v>68</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H76" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
+      <c r="H76" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3421,26 +3426,26 @@
         <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H77" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
+      <c r="H77" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3448,26 +3453,26 @@
         <v>70</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H78" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
+      <c r="H78" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3475,27 +3480,27 @@
         <v>71</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3503,24 +3508,24 @@
         <v>72</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H80" s="28"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3528,24 +3533,24 @@
         <v>73</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3553,321 +3558,336 @@
         <v>74</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
     </row>
     <row r="83" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>75</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
     </row>
     <row r="84" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>76</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
     </row>
     <row r="85" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>77</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
     </row>
     <row r="86" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>78</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
     </row>
     <row r="87" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>79</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
     </row>
     <row r="88" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>80</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
     </row>
     <row r="89" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>81</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
     </row>
     <row r="90" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>82</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
     </row>
     <row r="91" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>83</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
     </row>
     <row r="92" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>84</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
     </row>
     <row r="93" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
         <v>85</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="18"/>
-      <c r="Q93" s="18"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
-      <c r="T93" s="18"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="H62:T62"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H45:T45"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H82:T82"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
-    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H93:T93"/>
+    <mergeCell ref="H88:T88"/>
+    <mergeCell ref="H89:T89"/>
+    <mergeCell ref="H90:T90"/>
+    <mergeCell ref="H91:T91"/>
+    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H83:T83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H7:T8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H46:T46"/>
+    <mergeCell ref="H32:T32"/>
+    <mergeCell ref="H34:T34"/>
+    <mergeCell ref="H35:T35"/>
+    <mergeCell ref="H36:T36"/>
+    <mergeCell ref="H37:T37"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="H44:T44"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H26:T26"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H24:T24"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
     <mergeCell ref="H64:T64"/>
     <mergeCell ref="H47:T47"/>
     <mergeCell ref="H48:T48"/>
@@ -3884,49 +3904,36 @@
     <mergeCell ref="H55:T55"/>
     <mergeCell ref="H56:T56"/>
     <mergeCell ref="H57:T57"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H26:T26"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H24:T24"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H7:T8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H46:T46"/>
-    <mergeCell ref="H32:T32"/>
-    <mergeCell ref="H34:T34"/>
-    <mergeCell ref="H35:T35"/>
-    <mergeCell ref="H36:T36"/>
-    <mergeCell ref="H37:T37"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="H44:T44"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H27:T27"/>
-    <mergeCell ref="H83:T83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="H86:T86"/>
-    <mergeCell ref="H87:T87"/>
-    <mergeCell ref="H93:T93"/>
-    <mergeCell ref="H88:T88"/>
-    <mergeCell ref="H89:T89"/>
-    <mergeCell ref="H90:T90"/>
-    <mergeCell ref="H91:T91"/>
-    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H82:T82"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H70:T70"/>
+    <mergeCell ref="H62:T62"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
+    <mergeCell ref="H45:T45"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">

--- a/기획서/Test Case/SPB TESTCASE_1.0.xlsx
+++ b/기획서/Test Case/SPB TESTCASE_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Sliding_Puzzle_Battle\기획서\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE2106C-CF90-4A40-BB2D-7820EDE450BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D262D-960D-4582-BDD2-493788CE1440}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
   <si>
     <t>구분</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -453,10 +453,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3.18 기준 - 이펙트는 나오긴 하지만 일정 상황에서 이펙트가 출력되다 말음</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -465,24 +461,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3.21 기준 - 이펙트는 나오긴 하지만 일정 상황에서 이펙트 잔존 현상</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.21 기준 - 에너지는 제대로 감소하지만 일정 상황에서 버그 발생</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1 스테이지 클리어 후, 재시작 시 다시 튜토리얼 이미지가 출력되지 않는가</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3.21 기준 - 제한 시간 사운드 문제</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.21 기준 - 애니메이션 및 이펙트는 제대로 작동하지만 일정 상황에서 
-일부 타일에게 영향을 주지 않는 버그 발생</t>
+    <t>3.22 기준 - quit로 정상적으로 종료했을 경우에만 저장됨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.22 기준 - 제한 시간 사운드 문제</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -828,20 +819,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -855,16 +849,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1497,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1520,10 +1511,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="19"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1538,14 +1529,14 @@
       </c>
       <c r="H3" s="5">
         <f>COUNTIF(G9:G93,"O")</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>84.705882352941174</v>
+        <v>90.588235294117652</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1555,14 +1546,14 @@
       </c>
       <c r="H4" s="7">
         <f>COUNTIF(G9:G93,"X")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>15.294117647058824</v>
+        <v>9.4117647058823533</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1571,7 +1562,7 @@
       </c>
       <c r="H5" s="9">
         <f>COUNTIF(G9:G93,"애매함")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1579,37 +1570,37 @@
         <v>8</v>
       </c>
       <c r="H6" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
@@ -1624,23 +1615,23 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1655,19 +1646,19 @@
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
     </row>
     <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1679,19 +1670,19 @@
       <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
     </row>
     <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1703,19 +1694,19 @@
       <c r="G11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1728,19 +1719,19 @@
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1753,19 +1744,19 @@
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1776,21 +1767,23 @@
         <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1806,19 +1799,19 @@
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1831,19 +1824,19 @@
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1856,19 +1849,19 @@
       <c r="G17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1887,19 +1880,19 @@
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1913,19 +1906,19 @@
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1939,19 +1932,19 @@
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1967,19 +1960,19 @@
       <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1993,19 +1986,19 @@
       <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2018,19 +2011,19 @@
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2044,19 +2037,19 @@
       <c r="G24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2070,19 +2063,19 @@
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2102,19 +2095,19 @@
       <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2128,19 +2121,19 @@
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2154,19 +2147,19 @@
       <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2180,19 +2173,19 @@
       <c r="G29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2209,19 +2202,19 @@
       <c r="G30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2235,19 +2228,19 @@
       <c r="G31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2261,19 +2254,19 @@
       <c r="G32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2287,19 +2280,19 @@
       <c r="G33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2316,19 +2309,19 @@
       <c r="G34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2342,19 +2335,19 @@
       <c r="G35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2367,19 +2360,19 @@
       <c r="G36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2393,19 +2386,19 @@
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2419,19 +2412,19 @@
       <c r="G38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2448,19 +2441,19 @@
       <c r="G39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2474,19 +2467,19 @@
       <c r="G40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
     </row>
     <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2499,19 +2492,19 @@
       <c r="G41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2525,19 +2518,19 @@
       <c r="G42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2551,19 +2544,19 @@
       <c r="G43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2580,19 +2573,19 @@
       <c r="G44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2606,19 +2599,19 @@
       <c r="G45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2632,19 +2625,19 @@
       <c r="G46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2658,19 +2651,19 @@
       <c r="G47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2689,19 +2682,19 @@
       <c r="G48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2714,19 +2707,19 @@
       <c r="G49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2739,19 +2732,19 @@
       <c r="G50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2764,19 +2757,19 @@
       <c r="G51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2789,19 +2782,19 @@
       <c r="G52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
     </row>
     <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2813,19 +2806,19 @@
       <c r="G53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2838,19 +2831,19 @@
       <c r="G54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2863,19 +2856,19 @@
       <c r="G55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2891,19 +2884,19 @@
       <c r="G56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2916,19 +2909,19 @@
       <c r="G57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2939,21 +2932,21 @@
         <v>66</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
+        <v>101</v>
+      </c>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2966,19 +2959,19 @@
       <c r="G59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="23"/>
+      <c r="T59" s="23"/>
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2989,21 +2982,21 @@
         <v>68</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="23"/>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3016,19 +3009,19 @@
       <c r="G61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="23"/>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3036,24 +3029,24 @@
         <v>54</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3064,23 +3057,21 @@
         <v>70</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3096,19 +3087,19 @@
       <c r="G64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3121,19 +3112,19 @@
       <c r="G65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3146,19 +3137,19 @@
       <c r="G66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3171,21 +3162,19 @@
       <c r="G67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H67" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3198,19 +3187,19 @@
       <c r="G68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3223,19 +3212,19 @@
       <c r="G69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3248,19 +3237,19 @@
       <c r="G70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="21"/>
-      <c r="P70" s="21"/>
-      <c r="Q70" s="21"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="21"/>
-      <c r="T70" s="21"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3273,19 +3262,19 @@
       <c r="G71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
-      <c r="S71" s="21"/>
-      <c r="T71" s="21"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3301,19 +3290,19 @@
       <c r="G72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3326,19 +3315,19 @@
       <c r="G73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3346,24 +3335,24 @@
         <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3376,19 +3365,19 @@
       <c r="G75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3402,23 +3391,21 @@
         <v>80</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3429,23 +3416,21 @@
         <v>81</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H77" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3456,23 +3441,21 @@
         <v>82</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H78" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="T78" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3488,19 +3471,19 @@
       <c r="G79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="21"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3513,19 +3496,19 @@
       <c r="G80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H80" s="22"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="T80" s="21"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3538,19 +3521,19 @@
       <c r="G81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="21"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3563,19 +3546,19 @@
       <c r="G82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="T82" s="21"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
     </row>
     <row r="83" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
@@ -3587,19 +3570,19 @@
       <c r="G83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="T83" s="21"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
     </row>
     <row r="84" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
@@ -3611,19 +3594,19 @@
       <c r="G84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
     </row>
     <row r="85" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
@@ -3635,19 +3618,19 @@
       <c r="G85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="T85" s="21"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
     </row>
     <row r="86" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
@@ -3659,19 +3642,19 @@
       <c r="G86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="T86" s="21"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
     </row>
     <row r="87" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
@@ -3683,19 +3666,19 @@
       <c r="G87" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="T87" s="21"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
     </row>
     <row r="88" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
@@ -3707,21 +3690,21 @@
       <c r="G88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H88" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
+      <c r="H88" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
     </row>
     <row r="89" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
@@ -3733,19 +3716,19 @@
       <c r="G89" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
-      <c r="T89" s="21"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="18"/>
     </row>
     <row r="90" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
@@ -3757,19 +3740,19 @@
       <c r="G90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
     </row>
     <row r="91" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
@@ -3781,19 +3764,19 @@
       <c r="G91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="21"/>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
-      <c r="T91" s="21"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
     </row>
     <row r="92" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
@@ -3805,19 +3788,19 @@
       <c r="G92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
     </row>
     <row r="93" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
@@ -3829,33 +3812,84 @@
       <c r="G93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
-      <c r="P93" s="21"/>
-      <c r="Q93" s="21"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
-      <c r="T93" s="21"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="H93:T93"/>
-    <mergeCell ref="H88:T88"/>
-    <mergeCell ref="H89:T89"/>
-    <mergeCell ref="H90:T90"/>
-    <mergeCell ref="H91:T91"/>
-    <mergeCell ref="H92:T92"/>
-    <mergeCell ref="H83:T83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="H86:T86"/>
-    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="H62:T62"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
+    <mergeCell ref="H45:T45"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H70:T70"/>
+    <mergeCell ref="H82:T82"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H64:T64"/>
+    <mergeCell ref="H47:T47"/>
+    <mergeCell ref="H48:T48"/>
+    <mergeCell ref="H49:T49"/>
+    <mergeCell ref="H50:T50"/>
+    <mergeCell ref="H51:T51"/>
+    <mergeCell ref="H52:T52"/>
+    <mergeCell ref="H53:T53"/>
+    <mergeCell ref="H54:T54"/>
+    <mergeCell ref="H59:T59"/>
+    <mergeCell ref="H60:T60"/>
+    <mergeCell ref="H61:T61"/>
+    <mergeCell ref="H63:T63"/>
+    <mergeCell ref="H55:T55"/>
+    <mergeCell ref="H56:T56"/>
+    <mergeCell ref="H57:T57"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H26:T26"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H24:T24"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H7:T8"/>
     <mergeCell ref="F7:F8"/>
@@ -3872,68 +3906,17 @@
     <mergeCell ref="H44:T44"/>
     <mergeCell ref="H23:T23"/>
     <mergeCell ref="H27:T27"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H26:T26"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H24:T24"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="H64:T64"/>
-    <mergeCell ref="H47:T47"/>
-    <mergeCell ref="H48:T48"/>
-    <mergeCell ref="H49:T49"/>
-    <mergeCell ref="H50:T50"/>
-    <mergeCell ref="H51:T51"/>
-    <mergeCell ref="H52:T52"/>
-    <mergeCell ref="H53:T53"/>
-    <mergeCell ref="H54:T54"/>
-    <mergeCell ref="H59:T59"/>
-    <mergeCell ref="H60:T60"/>
-    <mergeCell ref="H61:T61"/>
-    <mergeCell ref="H63:T63"/>
-    <mergeCell ref="H55:T55"/>
-    <mergeCell ref="H56:T56"/>
-    <mergeCell ref="H57:T57"/>
-    <mergeCell ref="H82:T82"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
-    <mergeCell ref="H81:T81"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H62:T62"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H45:T45"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
+    <mergeCell ref="H83:T83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="H93:T93"/>
+    <mergeCell ref="H88:T88"/>
+    <mergeCell ref="H89:T89"/>
+    <mergeCell ref="H90:T90"/>
+    <mergeCell ref="H91:T91"/>
+    <mergeCell ref="H92:T92"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">

--- a/기획서/Test Case/SPB TESTCASE_1.0.xlsx
+++ b/기획서/Test Case/SPB TESTCASE_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Sliding_Puzzle_Battle\기획서\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D262D-960D-4582-BDD2-493788CE1440}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F45F594-9888-4D3B-A76B-FD4A6592D439}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="106">
   <si>
     <t>구분</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -403,11 +403,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>게임 중 버튼이 움직이거나 출력될 때,
-Button_Click 파일이 출력되는가</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 중 팝업 오픈 시,
 Popup_Open 파일이 출력되는가</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -473,7 +468,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3.22 기준 - 제한 시간 사운드 문제</t>
+    <t>게임 클리어 시, CLEAR 파일이 출력되는가</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -819,23 +814,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -849,13 +841,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.9" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1511,10 +1506,10 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="27"/>
       <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1529,14 +1524,14 @@
       </c>
       <c r="H3" s="5">
         <f>COUNTIF(G9:G93,"O")</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
         <f>SUM(H3/K2)*100</f>
-        <v>90.588235294117652</v>
+        <v>92.941176470588232</v>
       </c>
       <c r="N3" s="10"/>
     </row>
@@ -1546,14 +1541,14 @@
       </c>
       <c r="H4" s="7">
         <f>COUNTIF(G9:G93,"X")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="11">
         <f>(SUM(H4:H6)/K2)*100</f>
-        <v>9.4117647058823533</v>
+        <v>7.0588235294117645</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1570,37 +1565,37 @@
         <v>8</v>
       </c>
       <c r="H6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
@@ -1615,23 +1610,23 @@
       <c r="E8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
     </row>
     <row r="9" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1646,19 +1641,19 @@
       <c r="G9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
     </row>
     <row r="10" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1670,19 +1665,19 @@
       <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
     </row>
     <row r="11" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1694,19 +1689,19 @@
       <c r="G11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1719,19 +1714,19 @@
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1744,19 +1739,19 @@
       <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1769,21 +1764,21 @@
       <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="H14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1799,19 +1794,19 @@
       <c r="G15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1824,19 +1819,19 @@
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1849,19 +1844,19 @@
       <c r="G17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1880,19 +1875,19 @@
       <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1906,19 +1901,19 @@
       <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1932,19 +1927,19 @@
       <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1960,19 +1955,19 @@
       <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -1986,19 +1981,19 @@
       <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2011,19 +2006,19 @@
       <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2037,19 +2032,19 @@
       <c r="G24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2063,19 +2058,19 @@
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2095,19 +2090,19 @@
       <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2121,19 +2116,19 @@
       <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2147,19 +2142,19 @@
       <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2173,19 +2168,19 @@
       <c r="G29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2202,19 +2197,19 @@
       <c r="G30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2228,19 +2223,19 @@
       <c r="G31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2254,19 +2249,19 @@
       <c r="G32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2280,19 +2275,19 @@
       <c r="G33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2309,19 +2304,19 @@
       <c r="G34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2335,19 +2330,19 @@
       <c r="G35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2360,19 +2355,19 @@
       <c r="G36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2386,19 +2381,19 @@
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2412,19 +2407,19 @@
       <c r="G38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2441,19 +2436,19 @@
       <c r="G39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2467,19 +2462,19 @@
       <c r="G40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
     </row>
     <row r="41" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2492,19 +2487,19 @@
       <c r="G41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2518,19 +2513,19 @@
       <c r="G42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2544,19 +2539,19 @@
       <c r="G43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2573,19 +2568,19 @@
       <c r="G44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2599,19 +2594,19 @@
       <c r="G45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2625,19 +2620,19 @@
       <c r="G46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2651,19 +2646,19 @@
       <c r="G47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
       <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2682,19 +2677,19 @@
       <c r="G48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
       <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2707,19 +2702,19 @@
       <c r="G49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2732,19 +2727,19 @@
       <c r="G50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2757,19 +2752,19 @@
       <c r="G51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2782,19 +2777,19 @@
       <c r="G52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
     </row>
     <row r="53" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2806,19 +2801,19 @@
       <c r="G53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2831,19 +2826,19 @@
       <c r="G54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2856,19 +2851,19 @@
       <c r="G55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2884,19 +2879,19 @@
       <c r="G56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2909,19 +2904,19 @@
       <c r="G57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2932,21 +2927,21 @@
         <v>66</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2959,19 +2954,19 @@
       <c r="G59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -2984,19 +2979,19 @@
       <c r="G60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3007,21 +3002,21 @@
         <v>69</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3029,24 +3024,24 @@
         <v>54</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3059,19 +3054,19 @@
       <c r="G63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3087,19 +3082,19 @@
       <c r="G64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3112,19 +3107,19 @@
       <c r="G65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3137,19 +3132,19 @@
       <c r="G66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3162,19 +3157,19 @@
       <c r="G67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H67" s="28"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3187,19 +3182,19 @@
       <c r="G68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3212,19 +3207,19 @@
       <c r="G69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3237,19 +3232,19 @@
       <c r="G70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3262,19 +3257,19 @@
       <c r="G71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3290,19 +3285,19 @@
       <c r="G72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3315,19 +3310,19 @@
       <c r="G73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3335,24 +3330,24 @@
         <v>66</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3365,19 +3360,19 @@
       <c r="G75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3391,21 +3386,21 @@
         <v>80</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3416,21 +3411,21 @@
         <v>81</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="21"/>
+      <c r="T77" s="21"/>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3443,19 +3438,19 @@
       <c r="G78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="21"/>
+      <c r="T78" s="21"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3471,19 +3466,19 @@
       <c r="G79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3496,19 +3491,19 @@
       <c r="G80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H80" s="28"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="21"/>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3521,19 +3516,19 @@
       <c r="G81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="21"/>
+      <c r="T81" s="21"/>
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -3546,19 +3541,19 @@
       <c r="G82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="21"/>
+      <c r="T82" s="21"/>
     </row>
     <row r="83" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
@@ -3570,294 +3565,305 @@
       <c r="G83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="21"/>
+      <c r="T83" s="21"/>
     </row>
     <row r="84" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>76</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
     </row>
     <row r="85" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>77</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
     </row>
     <row r="86" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>78</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
     </row>
     <row r="87" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>79</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
     </row>
     <row r="88" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>80</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H88" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
     </row>
     <row r="89" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>81</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
     </row>
     <row r="90" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>82</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="T90" s="21"/>
     </row>
     <row r="91" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>83</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="T91" s="21"/>
     </row>
     <row r="92" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>84</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
     </row>
     <row r="93" spans="2:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
         <v>85</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="18"/>
-      <c r="Q93" s="18"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
-      <c r="T93" s="18"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="H62:T62"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="H28:T28"/>
-    <mergeCell ref="H58:T58"/>
-    <mergeCell ref="H30:T30"/>
-    <mergeCell ref="H31:T31"/>
-    <mergeCell ref="H45:T45"/>
-    <mergeCell ref="H25:T25"/>
-    <mergeCell ref="H29:T29"/>
-    <mergeCell ref="H33:T33"/>
-    <mergeCell ref="H38:T38"/>
-    <mergeCell ref="H43:T43"/>
-    <mergeCell ref="H75:T75"/>
-    <mergeCell ref="H65:T65"/>
-    <mergeCell ref="H66:T66"/>
-    <mergeCell ref="H67:T67"/>
-    <mergeCell ref="H68:T68"/>
-    <mergeCell ref="H71:T71"/>
-    <mergeCell ref="H72:T72"/>
-    <mergeCell ref="H73:T73"/>
-    <mergeCell ref="H74:T74"/>
-    <mergeCell ref="H69:T69"/>
-    <mergeCell ref="H70:T70"/>
-    <mergeCell ref="H82:T82"/>
-    <mergeCell ref="H76:T76"/>
-    <mergeCell ref="H77:T77"/>
-    <mergeCell ref="H78:T78"/>
-    <mergeCell ref="H79:T79"/>
-    <mergeCell ref="H80:T80"/>
-    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H93:T93"/>
+    <mergeCell ref="H88:T88"/>
+    <mergeCell ref="H89:T89"/>
+    <mergeCell ref="H90:T90"/>
+    <mergeCell ref="H91:T91"/>
+    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H83:T83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="H86:T86"/>
+    <mergeCell ref="H87:T87"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H7:T8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H46:T46"/>
+    <mergeCell ref="H32:T32"/>
+    <mergeCell ref="H34:T34"/>
+    <mergeCell ref="H35:T35"/>
+    <mergeCell ref="H36:T36"/>
+    <mergeCell ref="H37:T37"/>
+    <mergeCell ref="H39:T39"/>
+    <mergeCell ref="H40:T40"/>
+    <mergeCell ref="H41:T41"/>
+    <mergeCell ref="H42:T42"/>
+    <mergeCell ref="H44:T44"/>
+    <mergeCell ref="H23:T23"/>
+    <mergeCell ref="H27:T27"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H26:T26"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="H24:T24"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="H18:T18"/>
     <mergeCell ref="H64:T64"/>
     <mergeCell ref="H47:T47"/>
     <mergeCell ref="H48:T48"/>
@@ -3874,49 +3880,36 @@
     <mergeCell ref="H55:T55"/>
     <mergeCell ref="H56:T56"/>
     <mergeCell ref="H57:T57"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="H26:T26"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="H13:T13"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="H19:T19"/>
-    <mergeCell ref="H20:T20"/>
-    <mergeCell ref="H21:T21"/>
-    <mergeCell ref="H22:T22"/>
-    <mergeCell ref="H24:T24"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="H17:T17"/>
-    <mergeCell ref="H18:T18"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H7:T8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H46:T46"/>
-    <mergeCell ref="H32:T32"/>
-    <mergeCell ref="H34:T34"/>
-    <mergeCell ref="H35:T35"/>
-    <mergeCell ref="H36:T36"/>
-    <mergeCell ref="H37:T37"/>
-    <mergeCell ref="H39:T39"/>
-    <mergeCell ref="H40:T40"/>
-    <mergeCell ref="H41:T41"/>
-    <mergeCell ref="H42:T42"/>
-    <mergeCell ref="H44:T44"/>
-    <mergeCell ref="H23:T23"/>
-    <mergeCell ref="H27:T27"/>
-    <mergeCell ref="H83:T83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="H86:T86"/>
-    <mergeCell ref="H87:T87"/>
-    <mergeCell ref="H93:T93"/>
-    <mergeCell ref="H88:T88"/>
-    <mergeCell ref="H89:T89"/>
-    <mergeCell ref="H90:T90"/>
-    <mergeCell ref="H91:T91"/>
-    <mergeCell ref="H92:T92"/>
+    <mergeCell ref="H82:T82"/>
+    <mergeCell ref="H76:T76"/>
+    <mergeCell ref="H77:T77"/>
+    <mergeCell ref="H78:T78"/>
+    <mergeCell ref="H79:T79"/>
+    <mergeCell ref="H80:T80"/>
+    <mergeCell ref="H81:T81"/>
+    <mergeCell ref="H75:T75"/>
+    <mergeCell ref="H65:T65"/>
+    <mergeCell ref="H66:T66"/>
+    <mergeCell ref="H67:T67"/>
+    <mergeCell ref="H68:T68"/>
+    <mergeCell ref="H71:T71"/>
+    <mergeCell ref="H72:T72"/>
+    <mergeCell ref="H73:T73"/>
+    <mergeCell ref="H74:T74"/>
+    <mergeCell ref="H69:T69"/>
+    <mergeCell ref="H70:T70"/>
+    <mergeCell ref="H62:T62"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="H28:T28"/>
+    <mergeCell ref="H58:T58"/>
+    <mergeCell ref="H30:T30"/>
+    <mergeCell ref="H31:T31"/>
+    <mergeCell ref="H45:T45"/>
+    <mergeCell ref="H25:T25"/>
+    <mergeCell ref="H29:T29"/>
+    <mergeCell ref="H33:T33"/>
+    <mergeCell ref="H38:T38"/>
+    <mergeCell ref="H43:T43"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G17">
